--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6813643333333333</v>
+        <v>0.6542786666666667</v>
       </c>
       <c r="H2">
-        <v>2.044093</v>
+        <v>1.962836</v>
       </c>
       <c r="I2">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="J2">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N2">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O2">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P2">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q2">
-        <v>115.579448936578</v>
+        <v>136.9159044271067</v>
       </c>
       <c r="R2">
-        <v>1040.215040429202</v>
+        <v>1232.24313984396</v>
       </c>
       <c r="S2">
-        <v>0.2562831373557382</v>
+        <v>0.2595006250586687</v>
       </c>
       <c r="T2">
-        <v>0.2562831373557382</v>
+        <v>0.2595006250586687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6813643333333333</v>
+        <v>0.6542786666666667</v>
       </c>
       <c r="H3">
-        <v>2.044093</v>
+        <v>1.962836</v>
       </c>
       <c r="I3">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="J3">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N3">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P3">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q3">
-        <v>0.6710591520345555</v>
+        <v>0.6443831380191112</v>
       </c>
       <c r="R3">
-        <v>6.039532368310999</v>
+        <v>5.799448242172001</v>
       </c>
       <c r="S3">
-        <v>0.001487990697455812</v>
+        <v>0.001221317770151763</v>
       </c>
       <c r="T3">
-        <v>0.001487990697455813</v>
+        <v>0.001221317770151763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6813643333333333</v>
+        <v>0.6542786666666667</v>
       </c>
       <c r="H4">
-        <v>2.044093</v>
+        <v>1.962836</v>
       </c>
       <c r="I4">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="J4">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N4">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P4">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q4">
-        <v>2.124645027093889</v>
+        <v>1.154047245271111</v>
       </c>
       <c r="R4">
-        <v>19.121805243845</v>
+        <v>10.38642520744</v>
       </c>
       <c r="S4">
-        <v>0.004711137648784594</v>
+        <v>0.002187298712652682</v>
       </c>
       <c r="T4">
-        <v>0.004711137648784595</v>
+        <v>0.002187298712652682</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6813643333333333</v>
+        <v>0.6542786666666667</v>
       </c>
       <c r="H5">
-        <v>2.044093</v>
+        <v>1.962836</v>
       </c>
       <c r="I5">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="J5">
-        <v>0.3450055461675409</v>
+        <v>0.3193006097963691</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N5">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P5">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q5">
-        <v>37.21663227264533</v>
+        <v>29.752819226372</v>
       </c>
       <c r="R5">
-        <v>334.949690453808</v>
+        <v>267.7753730373479</v>
       </c>
       <c r="S5">
-        <v>0.0825232804655623</v>
+        <v>0.05639136825489594</v>
       </c>
       <c r="T5">
-        <v>0.08252328046556232</v>
+        <v>0.05639136825489594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.535651</v>
       </c>
       <c r="I6">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="J6">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N6">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O6">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P6">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q6">
-        <v>143.373684698046</v>
+        <v>176.87211258429</v>
       </c>
       <c r="R6">
-        <v>1290.363162282414</v>
+        <v>1591.84901325861</v>
       </c>
       <c r="S6">
-        <v>0.3179134185769506</v>
+        <v>0.335230767843385</v>
       </c>
       <c r="T6">
-        <v>0.3179134185769507</v>
+        <v>0.335230767843385</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.535651</v>
       </c>
       <c r="I7">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="J7">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N7">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P7">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q7">
-        <v>0.8324336563529998</v>
+        <v>0.8324336563530002</v>
       </c>
       <c r="R7">
-        <v>7.491902907176999</v>
+        <v>7.491902907177002</v>
       </c>
       <c r="S7">
-        <v>0.001845818707854549</v>
+        <v>0.001577735289755785</v>
       </c>
       <c r="T7">
-        <v>0.001845818707854549</v>
+        <v>0.001577735289755785</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.535651</v>
       </c>
       <c r="I8">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="J8">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N8">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P8">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q8">
-        <v>2.635573962435</v>
+        <v>1.49083318806</v>
       </c>
       <c r="R8">
-        <v>23.720165661915</v>
+        <v>13.41749869254</v>
       </c>
       <c r="S8">
-        <v>0.005844059389801886</v>
+        <v>0.002825618731282942</v>
       </c>
       <c r="T8">
-        <v>0.005844059389801886</v>
+        <v>0.002825618731282942</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.535651</v>
       </c>
       <c r="I9">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="J9">
-        <v>0.4279715542029013</v>
+        <v>0.4124821994964292</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N9">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P9">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q9">
-        <v>46.166388143184</v>
+        <v>38.435593103127</v>
       </c>
       <c r="R9">
-        <v>415.497493288656</v>
+        <v>345.9203379281429</v>
       </c>
       <c r="S9">
-        <v>0.1023682575282942</v>
+        <v>0.0728480776320055</v>
       </c>
       <c r="T9">
-        <v>0.1023682575282942</v>
+        <v>0.0728480776320055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4392866666666667</v>
+        <v>0.5380133333333333</v>
       </c>
       <c r="H10">
-        <v>1.31786</v>
+        <v>1.61404</v>
       </c>
       <c r="I10">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="J10">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N10">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O10">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P10">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q10">
-        <v>74.51595038756</v>
+        <v>112.5859452249333</v>
       </c>
       <c r="R10">
-        <v>670.64355348804</v>
+        <v>1013.2735070244</v>
       </c>
       <c r="S10">
-        <v>0.1652299065627802</v>
+        <v>0.2133873583272844</v>
       </c>
       <c r="T10">
-        <v>0.1652299065627802</v>
+        <v>0.2133873583272844</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4392866666666667</v>
+        <v>0.5380133333333333</v>
       </c>
       <c r="H11">
-        <v>1.31786</v>
+        <v>1.61404</v>
       </c>
       <c r="I11">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="J11">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N11">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O11">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P11">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q11">
-        <v>0.432642748691111</v>
+        <v>0.5298762403422224</v>
       </c>
       <c r="R11">
-        <v>3.893784738219999</v>
+        <v>4.76888616308</v>
       </c>
       <c r="S11">
-        <v>0.0009593318017081986</v>
+        <v>0.001004289575764736</v>
       </c>
       <c r="T11">
-        <v>0.0009593318017081988</v>
+        <v>0.001004289575764736</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4392866666666667</v>
+        <v>0.5380133333333333</v>
       </c>
       <c r="H12">
-        <v>1.31786</v>
+        <v>1.61404</v>
       </c>
       <c r="I12">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="J12">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N12">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O12">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P12">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q12">
-        <v>1.369793201877778</v>
+        <v>0.9489730246222222</v>
       </c>
       <c r="R12">
-        <v>12.3281388169</v>
+        <v>8.540757221599998</v>
       </c>
       <c r="S12">
-        <v>0.003037347058977877</v>
+        <v>0.00179861568371985</v>
       </c>
       <c r="T12">
-        <v>0.003037347058977877</v>
+        <v>0.00179861568371985</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4392866666666667</v>
+        <v>0.5380133333333333</v>
       </c>
       <c r="H13">
-        <v>1.31786</v>
+        <v>1.61404</v>
       </c>
       <c r="I13">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="J13">
-        <v>0.2224306864082776</v>
+        <v>0.2625608844731457</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N13">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O13">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P13">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q13">
-        <v>23.99416807690667</v>
+        <v>24.46574260108</v>
       </c>
       <c r="R13">
-        <v>215.94751269216</v>
+        <v>220.19168340972</v>
       </c>
       <c r="S13">
-        <v>0.05320410098481132</v>
+        <v>0.04637062088637677</v>
       </c>
       <c r="T13">
-        <v>0.05320410098481133</v>
+        <v>0.04637062088637677</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.009069333333333334</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H14">
-        <v>0.027208</v>
+        <v>0.034771</v>
       </c>
       <c r="I14">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="J14">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>169.629438</v>
+        <v>209.26237</v>
       </c>
       <c r="N14">
-        <v>508.888314</v>
+        <v>627.78711</v>
       </c>
       <c r="O14">
-        <v>0.7428377317484701</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="P14">
-        <v>0.7428377317484702</v>
+        <v>0.8127157202241573</v>
       </c>
       <c r="Q14">
-        <v>1.538425916368</v>
+        <v>2.425420622423334</v>
       </c>
       <c r="R14">
-        <v>13.845833247312</v>
+        <v>21.82878560181</v>
       </c>
       <c r="S14">
-        <v>0.003411269253001171</v>
+        <v>0.004596968994819216</v>
       </c>
       <c r="T14">
-        <v>0.003411269253001172</v>
+        <v>0.004596968994819216</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.009069333333333334</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H15">
-        <v>0.027208</v>
+        <v>0.034771</v>
       </c>
       <c r="I15">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="J15">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9848756666666665</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N15">
-        <v>2.954626999999999</v>
+        <v>2.954627</v>
       </c>
       <c r="O15">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="P15">
-        <v>0.004312947180081614</v>
+        <v>0.003824977881910862</v>
       </c>
       <c r="Q15">
-        <v>0.008932165712888887</v>
+        <v>0.01141503726855556</v>
       </c>
       <c r="R15">
-        <v>0.08038949141599998</v>
+        <v>0.102735335417</v>
       </c>
       <c r="S15">
-        <v>1.980597306305425E-05</v>
+        <v>2.163524623857874E-05</v>
       </c>
       <c r="T15">
-        <v>1.980597306305425E-05</v>
+        <v>2.163524623857874E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.009069333333333334</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H16">
-        <v>0.027208</v>
+        <v>0.034771</v>
       </c>
       <c r="I16">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="J16">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.118221666666667</v>
+        <v>1.763846666666667</v>
       </c>
       <c r="N16">
-        <v>9.354665000000001</v>
+        <v>5.291539999999999</v>
       </c>
       <c r="O16">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="P16">
-        <v>0.01365525192599884</v>
+        <v>0.006850280411451801</v>
       </c>
       <c r="Q16">
-        <v>0.02828019170222222</v>
+        <v>0.02044357081555555</v>
       </c>
       <c r="R16">
-        <v>0.25452172532</v>
+        <v>0.18399213734</v>
       </c>
       <c r="S16">
-        <v>6.270782843448476E-05</v>
+        <v>3.874728379632655E-05</v>
       </c>
       <c r="T16">
-        <v>6.270782843448476E-05</v>
+        <v>3.874728379632655E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.009069333333333334</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H17">
-        <v>0.027208</v>
+        <v>0.034771</v>
       </c>
       <c r="I17">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="J17">
-        <v>0.004592213221280271</v>
+        <v>0.005656306234056004</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.620752</v>
+        <v>45.474231</v>
       </c>
       <c r="N17">
-        <v>163.862256</v>
+        <v>136.422693</v>
       </c>
       <c r="O17">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="P17">
-        <v>0.2391940691454494</v>
+        <v>0.1766090214824801</v>
       </c>
       <c r="Q17">
-        <v>0.4953738068053334</v>
+        <v>0.527061495367</v>
       </c>
       <c r="R17">
-        <v>4.458364261248</v>
+        <v>4.743553458302999</v>
       </c>
       <c r="S17">
-        <v>0.00109843016678156</v>
+        <v>0.0009989547092018828</v>
       </c>
       <c r="T17">
-        <v>0.00109843016678156</v>
+        <v>0.0009989547092018828</v>
       </c>
     </row>
   </sheetData>
